--- a/marketsai/Documents/models_log.xlsx
+++ b/marketsai/Documents/models_log.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matiascovarrubias/Documents/universidad/NYU/Research/Repositories/marketsAI/marketsai/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07890045-4292-AF42-9355-0ED75BB4C0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5C9262-6C0C-1A40-8FD1-1C686D4D00F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-1040" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{01F1F50B-224D-FD49-AAA4-65F21AF75150}"/>
+    <workbookView xWindow="-51200" yWindow="-1040" windowWidth="51200" windowHeight="28340" xr2:uid="{01F1F50B-224D-FD49-AAA4-65F21AF75150}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="cap_planner_sa" sheetId="2" r:id="rId2"/>
+    <sheet name="expers_log" sheetId="3" r:id="rId2"/>
+    <sheet name="cap_planner_sa" sheetId="2" r:id="rId3"/>
+    <sheet name="cap_planner_ma" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
   <si>
     <t>The following models are already solved:</t>
   </si>
@@ -85,23 +87,326 @@
     <t>krusell_smith.py</t>
   </si>
   <si>
-    <t>Releant folders</t>
-  </si>
-  <si>
-    <t>n_hh</t>
-  </si>
-  <si>
     <t>discounted_rewards</t>
   </si>
   <si>
     <t>time to peak</t>
+  </si>
+  <si>
+    <t>run 300 iteration of 5m batches on 5hh_planner_ma on server</t>
+  </si>
+  <si>
+    <t>run 300 iteration of 5m batches on 4hh_planner_ma on server</t>
+  </si>
+  <si>
+    <t>run 300 iteration of 5m batches on 3hh_planner_ma on server</t>
+  </si>
+  <si>
+    <t>run 300 iteration of 5m batches on 2hh_planner_ma on server</t>
+  </si>
+  <si>
+    <t>run 300 iteration of 5m batches on 1hh_planner_ma on server</t>
+  </si>
+  <si>
+    <t>server_100hhlargebatch_restoredcapital_planner_sa_test_July22_PPO/PPO_capital_planner_sa_f9673_00000_0_2021-07-23_06-15-58/checkpoint_2400/checkpoint-2400</t>
+  </si>
+  <si>
+    <t>it increased, we reache -2.961. I caugh -2.999 at iteration 2400</t>
+  </si>
+  <si>
+    <t>restore 100_hh bigbatch server to run 500 iterations more</t>
+  </si>
+  <si>
+    <t>Juy 23</t>
+  </si>
+  <si>
+    <t>native_1hh_capital_planner_sa_run_July29_PPO/PPO_capital_planner_sa_1efd0_00006_6_clip_param=0.1,entropy_coeff=0.0,lambda=1.0,lr=5e-05,vf_clip_param=20_2021-07-29_22-51-57/checkpoint_001000/checkpoint-1000</t>
+  </si>
+  <si>
+    <t>hyperparameters that wroked were lr=default, lambda=1, clip_param=0.1.  It reached 39.81</t>
+  </si>
+  <si>
+    <t>run 1000 iters of 5m batch on 1hh_planner_sa</t>
+  </si>
+  <si>
+    <t>native_1hh_capital_planner_sa_run_July29_PPO/PPO_capital_planner_sa_c3def_00000_0_2021-07-29_16-44-27/checkpoint_000200/checkpoint-200</t>
+  </si>
+  <si>
+    <t>reach -39.81 at iteration 200 (first peak at 360K)</t>
+  </si>
+  <si>
+    <t>run 330 iteration of 5M batches on 1hh_planner_sa NATIVE</t>
+  </si>
+  <si>
+    <t>server_10hh_capital_planner_ma_run_July22_PPO/PPO_capital_planner_ma_6c7a7_00002_2_2021-07-22_13-22-43/checkpoint_300/checkpoint-300</t>
+  </si>
+  <si>
+    <t>reach 18.6 at iteration 300. First peak at 50K (iteration 10)</t>
+  </si>
+  <si>
+    <t>run 300 itetations of 5M batches on 10hh_planner_sa</t>
+  </si>
+  <si>
+    <t>server_1hh_server_planner_sa_run_July22_PPO/PPO_server_planner_sa_75e68_00003_3_2021-07-22_10-59-49/checkpoint_300/checkpoint-300</t>
+  </si>
+  <si>
+    <t>reach -39.81 at iteration 75 (3min 20s). Caugh it at iteration 300.</t>
+  </si>
+  <si>
+    <t>run 300 itetations of 5M batches on 1hh_planner_sa</t>
+  </si>
+  <si>
+    <t>server_100hh_bigbatchserver_planner_sa_run_July21_PPO/PPO_server_planner_sa_52d59_00000_0_2021-07-21_20-39-50/checkpoint_2000/checkpoint-2000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we get more. </t>
+  </si>
+  <si>
+    <t>run 2000 iters of 40m batches on 100h_planer_sa</t>
+  </si>
+  <si>
+    <t>server_100hh_server_planner_sa_run_July21_PPO/PPO_server_planner_sa_bf2b4_00001_1_2021-07-21_15-42-13?/checkpoint_375/checkpoint-375</t>
+  </si>
+  <si>
+    <t>we get -5.298 on trial 01 at 1.87MM. We caught it at 1.875M (375 iteartions) with -5.311</t>
+  </si>
+  <si>
+    <t>run 1000 iters of 5m batches on 100h_planner_sa</t>
+  </si>
+  <si>
+    <t>server_5hh_capital_planner_ma_run_July21_PPO/PPO_capital_planner_ma_46ca2_00006_6_2021-07-21_14-27-16/checkpoint_225/checkpoint-225</t>
+  </si>
+  <si>
+    <t>we get 24.86 on trial 0, iteration 15, and then 24.91 on trial 6, iteration 225</t>
+  </si>
+  <si>
+    <t>run 500 iters of 5M batches on 5hh_planner_ma</t>
+  </si>
+  <si>
+    <t>server_2hh_capital_planner_ma_run_July21_PPO/PPO_capital_planner_ma_66a6f_00005_5_2021-07-21_10-46-15/checkpoint_200/checkpoint-200</t>
+  </si>
+  <si>
+    <t>It reaches peak (32.82) at iteration 36 with 1 min 50s, I cough it in a  checkpont at 200.</t>
+  </si>
+  <si>
+    <t>run 200 iters of 5000 batchs on 2hh planner_ma</t>
+  </si>
+  <si>
+    <t>server_5hh_capital_planner_run_July16_PPO/PPO_capital_planner_7f33d_00000_0_2021-07-16_11-42-59</t>
+  </si>
+  <si>
+    <t>It convergesto a high point but that point was reached in the first peak of other experiments.</t>
+  </si>
+  <si>
+    <t>very large run (80mm) with 5hh.</t>
+  </si>
+  <si>
+    <t>server_10hh_fast_capital_planner_run_July16_PPO/PPO_capital_planner_1516b_00000_0_2021-07-16_18-56-40</t>
+  </si>
+  <si>
+    <t>It got its first peak at around 200k but then it imrpoved upon it later (after 1MMM steps). I don't know what the best chekpoint is</t>
+  </si>
+  <si>
+    <t>Tested 1 hh but run wutl small batches</t>
+  </si>
+  <si>
+    <t>server_10hh_fast_capital_planner_run_July16_PPO/PPO_capital_planner_95692_00000_0_2021-07-16_15-54-08/checkpoint_500/checkpoint-500</t>
+  </si>
+  <si>
+    <t>they all converged but the 100 hh (the fials have different trials id so check it.</t>
+  </si>
+  <si>
+    <t>Tested 1 vs 2 vs 5 vs 10 vs 100 hh, total of 20MM steps</t>
+  </si>
+  <si>
+    <t>server_2h_robustcapital_planner_test_July19_PPO/PPO_capital_planner_bb2f2_00002_2_2021-07-19_12-52-41/checkpoint_70/checkpoint-70</t>
+  </si>
+  <si>
+    <t>They all get pretty much the same (35.4) at checkpoint 70 (350k)</t>
+  </si>
+  <si>
+    <t>Tested many runs on 2hh planner</t>
+  </si>
+  <si>
+    <t>server_1h_finetune_capital_planner_test_July19_PPO/PPO_capital_planner_4c124_00000_0_2021-07-19_14-15-28/checkpoint_70/checkpoint-70</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They all get pretty much the same at chekpoint (42.9)  70</t>
+  </si>
+  <si>
+    <t>Tested many runs on 1hh planner.</t>
+  </si>
+  <si>
+    <t>server_2hh_capital_planner_ma_test_July20_PPO/PPO_capital_planner_ma_64768_00004_4_lr=3e-05_2021-07-20_20-05-44/checkpoint_60/checkpoint-60</t>
+  </si>
+  <si>
+    <t>It worked nicely, but I need to decide how to present the results.</t>
+  </si>
+  <si>
+    <t>First test with 500k of 2hh on capital_planner_ma. 8 trials with different lr</t>
+  </si>
+  <si>
+    <t>Best checkpoint</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>In paper</t>
+  </si>
+  <si>
+    <t>max_reward</t>
+  </si>
+  <si>
+    <t>min_time to peak</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reach 39.8 at 350k, iter 70. </t>
+  </si>
+  <si>
+    <t>/Users/matiascovarrubias/ray_results/native_2hh_capital_planner_ma_run_August16_PPO/PPO_capital_planner_ma_326d8_00000_0_2021-08-16_20-22-25/checkpoint_000036/checkpoint-36</t>
+  </si>
+  <si>
+    <t>/Users/matiascovarrubias/ray_results/native_1hh_capital_planner_ma_run_August16_PPO/PPO_capital_planner_ma_028d6_00000_0_2021-08-16_19-52-27/checkpoint_000070/checkpoint-70</t>
+  </si>
+  <si>
+    <t>reach 32.81 at 180k, iter 36, then again at iter 146.</t>
+  </si>
+  <si>
+    <t>3 min 5 s</t>
+  </si>
+  <si>
+    <t>/Users/matiascovarrubias/ray_results/native_3hh_capital_planner_ma_run_August16_PPO/PPO_capital_planner_ma_8dd0d_00000_0_2021-08-16_21-00-4/checkpoint_000266/checkpoint-266</t>
+  </si>
+  <si>
+    <t>2 min 37 s</t>
+  </si>
+  <si>
+    <t>reach 29.53 at 135k, we caught it at 29.54 at 1330k, iter 266</t>
+  </si>
+  <si>
+    <t>1 min 59s</t>
+  </si>
+  <si>
+    <t>reach 26.7 at 100k, iter 20</t>
+  </si>
+  <si>
+    <t>/Users/matiascovarrubias/ray_resultsnative_4hh_capital_planner_ma_run_August16_PPO/PPO_capital_planner_ma_cc66f_00000_0_2021-08-16_22-28-25/checkpoint_000020/checkpoint-20</t>
+  </si>
+  <si>
+    <t>1 min 19s</t>
+  </si>
+  <si>
+    <t>reach 24.89 at 80k iter 16. Caught a mature one at trial 0, iter 218</t>
+  </si>
+  <si>
+    <t>/Users/matiascovarrubias/ray_results/native_5hh_capital_planner_ma_run_August16_PPO/PPO_capital_planner_ma_10d2e_00001_1_2021-08-17_09-21-44/checkpoint_000016/checkpoint-16</t>
+  </si>
+  <si>
+    <t>Exeriment</t>
+  </si>
+  <si>
+    <t>August 16, run many hh in cap_planner_ma using only 3 cores, to compare with GDSGE.</t>
+  </si>
+  <si>
+    <t>all the files rea in the progrss csv with column name evaluation/custom_metrics/discounted_rewards_mean</t>
+  </si>
+  <si>
+    <t>run 300 iteration of 5m batches on 10hh_planner_ma on server</t>
+  </si>
+  <si>
+    <t>2 min 28s</t>
+  </si>
+  <si>
+    <t>reach 18.61, trial 1, 65k,. We didn't caught initial peak, so restore from iter 400.</t>
+  </si>
+  <si>
+    <t>/Users/matiascovarrubias/ray_results/native_10hh_capital_planner_ma_run_August16_PPO/PPO_capital_planner_ma_acf75_00001_1_2021-08-17_19-56-01/checkpoint_000400/checkpoint-400</t>
+  </si>
+  <si>
+    <t>Performance Metrics</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Code is done.</t>
+  </si>
+  <si>
+    <t>It runs well, even for very large n-hh (&gt;100) but its slow compared cap_panner_ma</t>
+  </si>
+  <si>
+    <t>Better commenting and recorde here performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RL </t>
+  </si>
+  <si>
+    <t>Pol. Iteration</t>
+  </si>
+  <si>
+    <t>cap_panner_pa</t>
+  </si>
+  <si>
+    <t>August 18th</t>
+  </si>
+  <si>
+    <t>Date_init</t>
+  </si>
+  <si>
+    <t>Date_updated</t>
+  </si>
+  <si>
+    <t>August 28th</t>
+  </si>
+  <si>
+    <t>Date init</t>
+  </si>
+  <si>
+    <t>Date updated</t>
+  </si>
+  <si>
+    <t>Macintosh HD/Users /matiascovarrubias /ray_results</t>
+  </si>
+  <si>
+    <t>/Users/matiascovarrubias/Documents/universidad/NYU/Research/Repositories/marketsAI/marketsai/</t>
+  </si>
+  <si>
+    <t>policy itration policies</t>
+  </si>
+  <si>
+    <t>RL policies</t>
+  </si>
+  <si>
+    <t>/Users/matiascovarrubias/Documents/universidad/NYU/Research/Repositories/marketsAI/marketsai/Econ_policies</t>
+  </si>
+  <si>
+    <t>code RL</t>
+  </si>
+  <si>
+    <t>code Pol. Iteration</t>
+  </si>
+  <si>
+    <t>/Users/matiascovarrubias/Documents/universidad/NYU/Research/Repositories/marketsAI/marketsai/Econ_algos</t>
+  </si>
+  <si>
+    <t>Relevant Folders Native</t>
+  </si>
+  <si>
+    <t>Relevant Folders Server</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,13 +414,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFCE9178"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="FiraCode Nerd Font"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,8 +458,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,25 +782,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC02F867-E2FE-CE4C-8B91-876E8971B79E}">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
-    <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -480,50 +817,123 @@
       <c r="F5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="2">
+        <v>44426</v>
+      </c>
+      <c r="H6" s="2">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="2">
+        <v>44426</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="2">
+        <v>44426</v>
+      </c>
+      <c r="H8" s="2">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="2">
+        <v>44426</v>
+      </c>
+      <c r="H9" s="2">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="2">
+        <v>44426</v>
+      </c>
+      <c r="H10" s="2">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -532,29 +942,625 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DE7AD4-09D7-814D-89A3-1432F1CCDB1B}">
-  <dimension ref="C4:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D904E-4DC5-D647-AE78-AEC2FC3E8244}">
+  <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="63.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="114" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="17">
+      <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" ht="17">
+      <c r="C4" s="6"/>
+      <c r="D4" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="17">
+      <c r="B6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="43" customHeight="1">
+      <c r="C8" s="2">
+        <v>44397</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" ht="43" customHeight="1">
+      <c r="C9" s="2">
+        <v>44396</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="43" customHeight="1">
+      <c r="C10" s="2">
+        <v>44396</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" ht="43" customHeight="1">
+      <c r="C11" s="2">
+        <v>44393</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="43" customHeight="1">
+      <c r="C12" s="2">
+        <v>44393</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="43" customHeight="1">
+      <c r="C13" s="2">
+        <v>44393</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="43" customHeight="1">
+      <c r="C14" s="2">
+        <v>44398</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="43" customHeight="1">
+      <c r="C15" s="2">
+        <v>44398</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" ht="43" customHeight="1">
+      <c r="C16" s="2">
+        <v>44398</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="43" customHeight="1">
+      <c r="D17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="43" customHeight="1">
+      <c r="C18" s="2">
+        <v>44399</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="43" customHeight="1">
+      <c r="C19" s="2">
+        <v>44399</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="17">
+      <c r="C20" s="2">
+        <v>44406</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="34">
+      <c r="C21" s="2">
+        <v>44406</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="17">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="17">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:8" ht="17">
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8" ht="34">
+      <c r="C25" s="2">
+        <v>44424</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="1">
+        <v>39.81</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="34">
+      <c r="C26" s="2">
+        <v>44424</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="1">
+        <v>32.82</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="34">
+      <c r="C27" s="2">
+        <v>44424</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="1">
+        <v>29.54</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="34">
+      <c r="C28" s="2">
+        <v>44424</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1">
+        <v>26.7</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="34">
+      <c r="C29" s="2">
+        <v>44424</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1">
+        <v>24.89</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="34">
+      <c r="C30" s="2">
+        <v>44424</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="1">
+        <v>24.89</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" ht="34">
+      <c r="D36" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DE7AD4-09D7-814D-89A3-1432F1CCDB1B}">
+  <dimension ref="D4:Q11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:17">
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="I4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="4:17">
+      <c r="E5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="4:17">
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" t="s">
+        <v>103</v>
+      </c>
+      <c r="P6" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="4:17">
+      <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="4:17">
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:17">
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="4:17">
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="O10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="4:17">
+      <c r="J11">
+        <v>100</v>
+      </c>
+      <c r="O11">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F09F31C-7AC7-AE42-92AD-04CA06F1F2E7}">
+  <dimension ref="C2:Q12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:17">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="3:17">
+      <c r="C3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="3:17">
       <c r="C4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="3:17">
+      <c r="D5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="3:17">
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="3:17">
+      <c r="E7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
+      <c r="O7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="3:17">
+      <c r="E8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:17">
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17">
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17">
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17">
+      <c r="J12">
+        <v>100</v>
+      </c>
+      <c r="O12">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/marketsai/Documents/models_log.xlsx
+++ b/marketsai/Documents/models_log.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matiascovarrubias/Documents/universidad/NYU/Research/Repositories/marketsAI/marketsai/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5C9262-6C0C-1A40-8FD1-1C686D4D00F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE414AF-40C6-1B44-BCE1-22277F0B5EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-51200" yWindow="-1040" windowWidth="51200" windowHeight="28340" xr2:uid="{01F1F50B-224D-FD49-AAA4-65F21AF75150}"/>
+    <workbookView xWindow="-51200" yWindow="-1040" windowWidth="51200" windowHeight="28340" activeTab="1" xr2:uid="{01F1F50B-224D-FD49-AAA4-65F21AF75150}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="123">
   <si>
     <t>The following models are already solved:</t>
   </si>
@@ -381,9 +381,6 @@
     <t>policy itration policies</t>
   </si>
   <si>
-    <t>RL policies</t>
-  </si>
-  <si>
     <t>/Users/matiascovarrubias/Documents/universidad/NYU/Research/Repositories/marketsAI/marketsai/Econ_policies</t>
   </si>
   <si>
@@ -400,6 +397,15 @@
   </si>
   <si>
     <t>Relevant Folders Server</t>
+  </si>
+  <si>
+    <t>RL policies and exp data</t>
+  </si>
+  <si>
+    <t>/home/mc5851/ray_results/</t>
+  </si>
+  <si>
+    <t>'/Users/matiascovarrubias/ray_results/native_1hh_capital_planner_ma_run_August16_PPO/PPO_capital_planner_ma_ffd63_00001_1_2021-08-18_17-55-28/checkpoint_000138/checkpoint-138'</t>
   </si>
 </sst>
 </file>
@@ -782,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC02F867-E2FE-CE4C-8B91-876E8971B79E}">
-  <dimension ref="A2:H18"/>
+  <dimension ref="A2:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView zoomScale="189" zoomScaleNormal="189" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -896,12 +902,12 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s">
         <v>111</v>
@@ -909,7 +915,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
         <v>112</v>
@@ -917,10 +923,10 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
         <v>117</v>
-      </c>
-      <c r="B15" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -928,12 +934,20 @@
         <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>120</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -945,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539D904E-4DC5-D647-AE78-AEC2FC3E8244}">
   <dimension ref="B1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1330,6 +1344,14 @@
       </c>
       <c r="H30" s="1" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="34">
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="4:4" ht="34">
